--- a/Ass.1/QuestionariUtenti.xlsx
+++ b/Ass.1/QuestionariUtenti.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mic-c\Documents\GitHubRepo\Recyclapp\Ass.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\domenico\Desktop\Ass.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E827E-54CF-46A4-A424-C965B51822B3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D59C66-E2F3-44E2-92B3-E7646EFAD458}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075" tabRatio="827" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="131">
   <si>
     <t>Decision Making</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Self Efficacy</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Scarso</t>
   </si>
   <si>
@@ -190,18 +187,6 @@
     <t>TSK2) identificare la tipologia di un rifiuto.</t>
   </si>
   <si>
-    <t>TSK3)identificare il proprietario di un cestino.</t>
-  </si>
-  <si>
-    <t>TSK5)comunicare al cittadino un’eventuale infrazione commessa.</t>
-  </si>
-  <si>
-    <t>TSK6)comunicare le modifiche al calendario di conferimento dei rifiuti.</t>
-  </si>
-  <si>
-    <t>TSK4)comunicare al responsabile comunale un infrazione  del cittadino.</t>
-  </si>
-  <si>
     <t>K&amp;S</t>
   </si>
   <si>
@@ -404,6 +389,57 @@
   </si>
   <si>
     <t>* I valori evidenziati in rosso sono minori della media (3)</t>
+  </si>
+  <si>
+    <t>T1_OQ</t>
+  </si>
+  <si>
+    <t>T2_OQ</t>
+  </si>
+  <si>
+    <t>Open Questions</t>
+  </si>
+  <si>
+    <t>TSK3) identificare il proprietario di un cestino.</t>
+  </si>
+  <si>
+    <t>TSK4) comunicare al responsabile comunale un infrazione  del cittadino.</t>
+  </si>
+  <si>
+    <t>TSK5) comunicare al cittadino un’eventuale infrazione commessa.</t>
+  </si>
+  <si>
+    <t>TSK6) comunicare le modifiche al calendario di conferimento dei rifiuti.</t>
+  </si>
+  <si>
+    <t>Pensi che il comune informi adeguatamente i cittadini sulle diverse categorie di rifiuti?</t>
+  </si>
+  <si>
+    <t>Pensi che sia necessario incrementare il numero di giorni in cui una tipologia di rifiuto viene raccolta?</t>
+  </si>
+  <si>
+    <t>T3_OQ</t>
+  </si>
+  <si>
+    <t>T4_OQ</t>
+  </si>
+  <si>
+    <t>Pensi che gli attuali metodi utilizzati per il riconoscimento del proprietario di un cestino siano sufficienti?</t>
+  </si>
+  <si>
+    <t>Ritieni sia necessario informare direttamente il cittadino della sua infrazione?</t>
+  </si>
+  <si>
+    <t>T5_OQ</t>
+  </si>
+  <si>
+    <t>T6_OQ</t>
+  </si>
+  <si>
+    <t>Ritieni che gli strumenti attuali siano abbastanza efficaci per comunicare un'infrazione al cittadino?</t>
+  </si>
+  <si>
+    <t>Pensi che sia necessario effettuare dei periodi di prova prima di effettuare modifiche definitive al calendario?</t>
   </si>
 </sst>
 </file>
@@ -554,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -616,6 +652,9 @@
     </xf>
     <xf numFmtId="2" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -913,7 +952,7 @@
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -941,71 +980,71 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911805B5-6B0C-4F2E-BFBE-7F73A4454D76}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,41 +1098,41 @@
     <row r="1" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
@@ -1105,15 +1144,15 @@
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -1125,15 +1164,15 @@
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -1144,25 +1183,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="18"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1174,16 +1208,16 @@
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18">
@@ -1194,16 +1228,16 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18">
@@ -1213,25 +1247,20 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H9" s="18"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1243,16 +1272,16 @@
     </row>
     <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18">
@@ -1263,15 +1292,15 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -1282,25 +1311,20 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H13" s="18"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1312,14 +1336,14 @@
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -1332,15 +1356,15 @@
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -1351,20 +1375,37 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="13"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="18">
-        <f>IF(C17="X",1)+IF(D17="X",2)+IF(E17="X",3)+IF(F17="X",4)+IF(G17="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1373,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1394,37 +1435,37 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1437,15 +1478,15 @@
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1457,13 +1498,13 @@
     </row>
     <row r="4" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1476,25 +1517,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1506,15 +1542,15 @@
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1526,16 +1562,16 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
@@ -1545,25 +1581,20 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1575,14 +1606,14 @@
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -1595,13 +1626,13 @@
     </row>
     <row r="12" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -1614,19 +1645,14 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1644,14 +1670,14 @@
     </row>
     <row r="15" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -1664,15 +1690,15 @@
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -1684,13 +1710,13 @@
     </row>
     <row r="17" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1703,25 +1729,20 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H18" s="16"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1733,15 +1754,15 @@
     </row>
     <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -1753,16 +1774,16 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
@@ -1772,25 +1793,20 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H22" s="16"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -1802,14 +1818,14 @@
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -1822,13 +1838,13 @@
     </row>
     <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -1841,20 +1857,37 @@
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="13"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="16">
-        <f>IF(C26="X",1)+IF(D26="X",2)+IF(E26="X",3)+IF(F26="X",4)+IF(G26="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1863,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F1421D-A680-4290-B28A-0C05F54946A7}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1884,37 +1917,37 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -1927,16 +1960,16 @@
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16">
@@ -1947,13 +1980,13 @@
     </row>
     <row r="4" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1966,25 +1999,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1996,15 +2024,15 @@
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -2016,16 +2044,16 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
@@ -2035,25 +2063,20 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -2065,14 +2088,14 @@
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -2085,13 +2108,13 @@
     </row>
     <row r="12" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -2104,19 +2127,14 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2134,14 +2152,14 @@
     </row>
     <row r="15" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2154,15 +2172,15 @@
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -2174,13 +2192,13 @@
     </row>
     <row r="17" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -2193,25 +2211,20 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H18" s="16"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2223,14 +2236,14 @@
     </row>
     <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -2243,16 +2256,16 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
@@ -2262,25 +2275,20 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H22" s="16"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -2292,13 +2300,13 @@
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -2312,13 +2320,13 @@
     </row>
     <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2331,20 +2339,37 @@
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="13"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="16">
-        <f>IF(C26="X",1)+IF(D26="X",2)+IF(E26="X",3)+IF(F26="X",4)+IF(G26="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2353,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58F22CF-1E80-4B11-84A5-73DECDB75415}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2374,38 +2399,38 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -2417,15 +2442,15 @@
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -2437,14 +2462,14 @@
     </row>
     <row r="4" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -2456,25 +2481,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2486,15 +2506,15 @@
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -2506,16 +2526,16 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
@@ -2525,25 +2545,20 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -2555,15 +2570,15 @@
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2575,15 +2590,15 @@
     </row>
     <row r="12" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2594,19 +2609,14 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2624,14 +2634,14 @@
     </row>
     <row r="15" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -2644,14 +2654,14 @@
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -2664,14 +2674,14 @@
     </row>
     <row r="17" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -2683,25 +2693,20 @@
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H18" s="16"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -2713,15 +2718,15 @@
     </row>
     <row r="20" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -2733,42 +2738,39 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H22" s="16"/>
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -2780,15 +2782,15 @@
     </row>
     <row r="24" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -2800,15 +2802,15 @@
     </row>
     <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -2819,20 +2821,37 @@
       <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="13"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="16">
-        <f>IF(C26="X",1)+IF(D26="X",2)+IF(E26="X",3)+IF(F26="X",4)+IF(G26="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2844,7 +2863,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2861,22 +2880,22 @@
     <row r="1" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7"/>
     </row>
@@ -2885,14 +2904,14 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H2" s="20">
         <f>AVERAGE(Quest.Cittadino1!H2,Quest.Cittadino2!H2,Quest.Cittadino3!H2)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>12</v>
@@ -2903,14 +2922,14 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H3" s="20">
         <f>AVERAGE(Quest.Cittadino1!H3,Quest.Cittadino2!H3,Quest.Cittadino3!H3)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2918,28 +2937,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H4" s="20">
         <f>AVERAGE(Quest.Cittadino1!H4,Quest.Cittadino2!H4,Quest.Cittadino3!H4)</f>
         <v>1.6666666666666667</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
-      <c r="H5" s="8">
-        <f>AVERAGE(Quest.Cittadino1!H5,Quest.Cittadino2!H5,Quest.Cittadino3!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -2949,30 +2961,30 @@
         <v>2.7777777777777781</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" s="8">
         <f>AVERAGE(Quest.Cittadino1!H7,Quest.Cittadino2!H7,Quest.Cittadino3!H7)</f>
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(Quest.Cittadino1!H8,Quest.Cittadino2!H8,Quest.Cittadino3!H8)</f>
@@ -2981,10 +2993,10 @@
     </row>
     <row r="9" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H9" s="8">
         <f>AVERAGE(Quest.Cittadino1!H9,Quest.Cittadino2!H9,Quest.Cittadino3!H9)</f>
@@ -2992,14 +3004,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
-      <c r="H10" s="8">
-        <f>AVERAGE(Quest.Cittadino1!H10,Quest.Cittadino2!H10,Quest.Cittadino3!H10)</f>
-        <v>0</v>
-      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -3011,25 +3018,25 @@
     </row>
     <row r="12" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" s="8">
         <f>AVERAGE(Quest.Cittadino1!H12,Quest.Cittadino2!H12,Quest.Cittadino3!H12)</f>
         <v>3</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13" s="20">
         <f>AVERAGE(Quest.Cittadino1!H13,Quest.Cittadino2!H13,Quest.Cittadino3!H13)</f>
@@ -3037,14 +3044,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
-      <c r="H14" s="8">
-        <f>AVERAGE(Quest.Cittadino1!H14,Quest.Cittadino2!H14,Quest.Cittadino3!H14)</f>
-        <v>0</v>
-      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3056,25 +3058,25 @@
     </row>
     <row r="16" spans="1:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H16" s="8">
         <f>AVERAGE(Quest.Cittadino1!H16,Quest.Cittadino2!H16,Quest.Cittadino3!H16)</f>
         <v>3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H17" s="8">
         <f>AVERAGE(Quest.Cittadino1!H17,Quest.Cittadino2!H17,Quest.Cittadino3!H17)</f>
@@ -3083,10 +3085,10 @@
     </row>
     <row r="18" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H18" s="20">
         <f>AVERAGE(Quest.Cittadino1!H18,Quest.Cittadino2!H18,Quest.Cittadino3!H18)</f>
@@ -3094,14 +3096,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
-      <c r="H19" s="8">
-        <f>AVERAGE(Quest.Cittadino1!H19,Quest.Cittadino2!H19,Quest.Cittadino3!H19)</f>
-        <v>0</v>
-      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3113,25 +3110,25 @@
     </row>
     <row r="21" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H21" s="8">
         <f>AVERAGE(Quest.Cittadino1!H21,Quest.Cittadino2!H21,Quest.Cittadino3!H21)</f>
         <v>4</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H22" s="8">
         <f>AVERAGE(Quest.Cittadino1!H22,Quest.Cittadino2!H22,Quest.Cittadino3!H22)</f>
@@ -3139,14 +3136,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="13"/>
-      <c r="H23" s="8">
-        <f>AVERAGE(Quest.Cittadino1!H23,Quest.Cittadino2!H23,Quest.Cittadino3!H23)</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -3165,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48C1DD-D1AA-4652-9A50-0182BAD0A219}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3183,22 +3175,22 @@
     <row r="1" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7"/>
     </row>
@@ -3207,14 +3199,14 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H2" s="8">
         <f>AVERAGE(Quest.CittadinoAnziano1!H2,Quest.CittadinoAnziano2!H2,Quest.CittadinoAnziano3!H2)</f>
         <v>2</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>12</v>
@@ -3225,14 +3217,14 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H3" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H3,Quest.CittadinoAnziano2!H3,Quest.CittadinoAnziano3!H3)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3240,28 +3232,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H4" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H4,Quest.CittadinoAnziano2!H4,Quest.CittadinoAnziano3!H4)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
-      <c r="H5" s="8">
-        <f>AVERAGE(Quest.CittadinoAnziano1!H5,Quest.CittadinoAnziano2!H5,Quest.CittadinoAnziano3!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -3271,30 +3256,30 @@
         <v>1.8888888888888891</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H7" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H7,Quest.CittadinoAnziano2!H7,Quest.CittadinoAnziano3!H7)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H8,Quest.CittadinoAnziano2!H8,Quest.CittadinoAnziano3!H8)</f>
@@ -3303,10 +3288,10 @@
     </row>
     <row r="9" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H9" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H9,Quest.CittadinoAnziano2!H9,Quest.CittadinoAnziano3!H9)</f>
@@ -3314,14 +3299,9 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
-      <c r="H10" s="8">
-        <f>AVERAGE(Quest.CittadinoAnziano1!H10,Quest.CittadinoAnziano2!H10,Quest.CittadinoAnziano3!H10)</f>
-        <v>0</v>
-      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -3333,25 +3313,25 @@
     </row>
     <row r="12" spans="1:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" s="8">
         <f>AVERAGE(Quest.CittadinoAnziano1!H12,Quest.CittadinoAnziano2!H12,Quest.CittadinoAnziano3!H12)</f>
         <v>2</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H13" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H13,Quest.CittadinoAnziano2!H13,Quest.CittadinoAnziano3!H13)</f>
@@ -3359,14 +3339,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
-      <c r="H14" s="8">
-        <f>AVERAGE(Quest.CittadinoAnziano1!H14,Quest.CittadinoAnziano2!H14,Quest.CittadinoAnziano3!H14)</f>
-        <v>0</v>
-      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3378,25 +3353,25 @@
     </row>
     <row r="16" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H16" s="8">
         <f>AVERAGE(Quest.CittadinoAnziano1!H16,Quest.CittadinoAnziano2!H16,Quest.CittadinoAnziano3!H16)</f>
         <v>3</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H17" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H17,Quest.CittadinoAnziano2!H17,Quest.CittadinoAnziano3!H17)</f>
@@ -3405,10 +3380,10 @@
     </row>
     <row r="18" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H18" s="8">
         <f>AVERAGE(Quest.CittadinoAnziano1!H18,Quest.CittadinoAnziano2!H18,Quest.CittadinoAnziano3!H18)</f>
@@ -3416,14 +3391,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
-      <c r="H19" s="8">
-        <f>AVERAGE(Quest.CittadinoAnziano1!H19,Quest.CittadinoAnziano2!H19,Quest.CittadinoAnziano3!H19)</f>
-        <v>0</v>
-      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3435,25 +3405,25 @@
     </row>
     <row r="21" spans="1:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H21" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H21,Quest.CittadinoAnziano2!H21,Quest.CittadinoAnziano3!H21)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H22" s="20">
         <f>AVERAGE(Quest.CittadinoAnziano1!H22,Quest.CittadinoAnziano2!H22,Quest.CittadinoAnziano3!H22)</f>
@@ -3461,14 +3431,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="13"/>
-      <c r="H23" s="8">
-        <f>AVERAGE(Quest.CittadinoAnziano1!H23,Quest.CittadinoAnziano2!H23,Quest.CittadinoAnziano3!H23)</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
@@ -3488,7 +3453,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3505,85 +3470,78 @@
     <row r="1" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H2" s="8">
         <f>AVERAGE(Quest.OperatoreEcologico1!H2,Quest.OperatoreEcologico2!H2,Quest.OperatoreEcologico3!H2)</f>
         <v>2</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H3" s="20">
         <f>AVERAGE(Quest.OperatoreEcologico1!H3,Quest.OperatoreEcologico2!H3,Quest.OperatoreEcologico3!H3)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H4" s="8">
         <f>AVERAGE(Quest.OperatoreEcologico1!H4,Quest.OperatoreEcologico2!H4,Quest.OperatoreEcologico3!H4)</f>
         <v>3</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
-      <c r="H5" s="8">
-        <f>AVERAGE(Quest.OperatoreEcologico1!H5,Quest.OperatoreEcologico2!H5,Quest.OperatoreEcologico3!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -3593,30 +3551,30 @@
         <v>2.4444444444444446</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H7" s="20">
         <f>AVERAGE(Quest.OperatoreEcologico1!H7,Quest.OperatoreEcologico2!H7,Quest.OperatoreEcologico3!H7)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(Quest.OperatoreEcologico1!H8,Quest.OperatoreEcologico2!H8,Quest.OperatoreEcologico3!H8)</f>
@@ -3624,14 +3582,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
-      <c r="H9" s="8">
-        <f>AVERAGE(Quest.OperatoreEcologico1!H9,Quest.OperatoreEcologico2!H9,Quest.OperatoreEcologico3!H9)</f>
-        <v>0</v>
-      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
@@ -3643,25 +3596,25 @@
     </row>
     <row r="11" spans="1:10" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H11" s="20">
         <f>AVERAGE(Quest.OperatoreEcologico1!H11,Quest.OperatoreEcologico2!H11,Quest.OperatoreEcologico3!H11)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H12" s="20">
         <f>AVERAGE(Quest.OperatoreEcologico1!H12,Quest.OperatoreEcologico2!H12,Quest.OperatoreEcologico3!H12)</f>
@@ -3669,14 +3622,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
-      <c r="H13" s="8">
-        <f>AVERAGE(Quest.OperatoreEcologico1!H13,Quest.OperatoreEcologico2!H13,Quest.OperatoreEcologico3!H13)</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
@@ -3688,25 +3636,25 @@
     </row>
     <row r="15" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H15" s="8">
         <f>AVERAGE(Quest.OperatoreEcologico1!H15,Quest.OperatoreEcologico2!H15,Quest.OperatoreEcologico3!H15)</f>
         <v>2</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H16" s="20">
         <f>AVERAGE(Quest.OperatoreEcologico1!H16,Quest.OperatoreEcologico2!H16,Quest.OperatoreEcologico3!H16)</f>
@@ -3714,16 +3662,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="13"/>
-      <c r="H17" s="8">
-        <f>AVERAGE(Quest.OperatoreEcologico1!H17,Quest.OperatoreEcologico2!H17,Quest.OperatoreEcologico3!H17)</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
       <c r="H18" s="12">
         <f>IF(H17&gt;0,AVERAGE(H15:H17),AVERAGE(H15:H16))</f>
         <v>2.166666666666667</v>
@@ -3739,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9E8FC7-6782-4D21-AC38-223A0F35190B}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3757,38 +3701,38 @@
     <row r="1" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H2" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H2,Quest.ResponsabileComunale2!H2,Quest.ResponsabileComunale3!H2)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>12</v>
@@ -3796,46 +3740,39 @@
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H3" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H3,Quest.ResponsabileComunale2!H3,Quest.ResponsabileComunale3!H3)</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H4" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H4,Quest.ResponsabileComunale2!H4,Quest.ResponsabileComunale3!H4)</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
-      <c r="H5" s="8">
-        <f>AVERAGE(Quest.ResponsabileComunale1!H5,Quest.ResponsabileComunale2!H5,Quest.ResponsabileComunale3!H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -3844,30 +3781,30 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H7" s="8">
         <f>AVERAGE(Quest.ResponsabileComunale1!H7,Quest.ResponsabileComunale2!H7,Quest.ResponsabileComunale3!H7)</f>
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H8" s="8">
         <f>AVERAGE(Quest.ResponsabileComunale1!H8,Quest.ResponsabileComunale2!H8,Quest.ResponsabileComunale3!H8)</f>
@@ -3875,14 +3812,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
-      <c r="H9" s="8">
-        <f>AVERAGE(Quest.ResponsabileComunale1!H9,Quest.ResponsabileComunale2!H9,Quest.ResponsabileComunale3!H9)</f>
-        <v>0</v>
-      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
@@ -3893,25 +3825,25 @@
     </row>
     <row r="11" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H11" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H11,Quest.ResponsabileComunale2!H11,Quest.ResponsabileComunale3!H11)</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H12" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H12,Quest.ResponsabileComunale2!H12,Quest.ResponsabileComunale3!H12)</f>
@@ -3919,14 +3851,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
-      <c r="H13" s="8">
-        <f>AVERAGE(Quest.ResponsabileComunale1!H13,Quest.ResponsabileComunale2!H13,Quest.ResponsabileComunale3!H13)</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -3937,10 +3864,10 @@
     </row>
     <row r="15" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H15" s="8">
         <f>AVERAGE(Quest.ResponsabileComunale1!H15,Quest.ResponsabileComunale2!H15,Quest.ResponsabileComunale3!H15)</f>
@@ -3952,10 +3879,10 @@
     </row>
     <row r="16" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H16" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H16,Quest.ResponsabileComunale2!H16,Quest.ResponsabileComunale3!H16)</f>
@@ -3964,10 +3891,10 @@
     </row>
     <row r="17" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H17" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H17,Quest.ResponsabileComunale2!H17,Quest.ResponsabileComunale3!H17)</f>
@@ -3975,14 +3902,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="13"/>
-      <c r="H18" s="8">
-        <f>AVERAGE(Quest.ResponsabileComunale1!H18,Quest.ResponsabileComunale2!H18,Quest.ResponsabileComunale3!H18)</f>
-        <v>0</v>
-      </c>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
@@ -3993,69 +3915,64 @@
     </row>
     <row r="20" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H20" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H20,Quest.ResponsabileComunale2!H20,Quest.ResponsabileComunale3!H20)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H21" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H21,Quest.ResponsabileComunale2!H21,Quest.ResponsabileComunale3!H21)</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A22" s="4"/>
       <c r="B22" s="13"/>
-      <c r="H22" s="8">
-        <f>AVERAGE(Quest.ResponsabileComunale1!H22,Quest.ResponsabileComunale2!H22,Quest.ResponsabileComunale3!H22)</f>
-        <v>0</v>
-      </c>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="H23" s="12">
         <f>IF(H22&gt;0,AVERAGE(H20:H22),AVERAGE(H20:H21))</f>
-        <v>2.6666666666666665</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H24" s="8">
         <f>AVERAGE(Quest.ResponsabileComunale1!H24,Quest.ResponsabileComunale2!H24,Quest.ResponsabileComunale3!H24)</f>
         <v>2</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H25" s="20">
         <f>AVERAGE(Quest.ResponsabileComunale1!H25,Quest.ResponsabileComunale2!H25,Quest.ResponsabileComunale3!H25)</f>
@@ -4063,16 +3980,12 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A26" s="4"/>
       <c r="B26" s="13"/>
-      <c r="H26" s="8">
-        <f>AVERAGE(Quest.ResponsabileComunale1!H26,Quest.ResponsabileComunale2!H26,Quest.ResponsabileComunale3!H26)</f>
-        <v>0</v>
-      </c>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
       <c r="H27" s="12">
         <f>IF(H26&gt;0,AVERAGE(H24:H26),AVERAGE(H24:H25))</f>
         <v>1.8333333333333335</v>
@@ -4098,24 +4011,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="21">
         <f>AVERAGE('MEDIE CITTADINO'!H6,'MEDIE CITTADINO ANZIANO'!H6)</f>
@@ -4133,7 +4046,7 @@
     </row>
     <row r="3" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="23">
@@ -4148,7 +4061,7 @@
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21">
@@ -4163,7 +4076,7 @@
     </row>
     <row r="5" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
@@ -4178,7 +4091,7 @@
     </row>
     <row r="6" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="21">
         <f>'MEDIE RESPONSABILE COMUNALE'!H6</f>
@@ -4196,7 +4109,7 @@
     </row>
     <row r="7" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B7" s="23">
         <f>'MEDIE RESPONSABILE COMUNALE'!H19</f>
@@ -4205,7 +4118,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="23">
         <f>'MEDIE RESPONSABILE COMUNALE'!H23</f>
-        <v>2.6666666666666665</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="E7" s="23">
         <f>'MEDIE RESPONSABILE COMUNALE'!H27</f>
@@ -4214,7 +4127,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4229,10 +4142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF494F74-8A14-4991-8DC0-8497816505B5}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4250,25 +4163,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4276,12 +4189,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -4296,12 +4209,12 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -4316,10 +4229,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -4332,25 +4245,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4362,15 +4270,15 @@
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -4382,14 +4290,14 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -4402,15 +4310,15 @@
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -4421,25 +4329,20 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4451,14 +4354,14 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -4471,14 +4374,14 @@
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -4490,25 +4393,20 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4520,15 +4418,15 @@
     </row>
     <row r="16" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -4540,16 +4438,16 @@
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16">
@@ -4560,16 +4458,16 @@
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16">
@@ -4579,25 +4477,20 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -4609,16 +4502,16 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
@@ -4629,15 +4522,15 @@
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -4648,20 +4541,37 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="13"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16">
-        <f>IF(C23="X",1)+IF(D23="X",2)+IF(E23="X",3)+IF(F23="X",4)+IF(G23="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="16"/>
       <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4670,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4693,25 +4603,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -4719,13 +4629,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16">
@@ -4738,13 +4648,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16">
@@ -4757,12 +4667,12 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -4772,24 +4682,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4800,15 +4705,15 @@
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -4819,17 +4724,17 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
@@ -4838,15 +4743,15 @@
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -4856,24 +4761,19 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4884,16 +4784,16 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16">
@@ -4904,15 +4804,15 @@
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -4922,24 +4822,19 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4950,14 +4845,14 @@
     </row>
     <row r="16" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -4969,15 +4864,15 @@
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -4988,16 +4883,16 @@
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16">
@@ -5006,24 +4901,19 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5034,15 +4924,15 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -5054,15 +4944,15 @@
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -5072,18 +4962,35 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16">
-        <f>IF(C23="X",1)+IF(D23="X",2)+IF(E23="X",3)+IF(F23="X",4)+IF(G23="X",5)</f>
-        <v>0</v>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5093,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F3B274-C276-49B1-9E19-99EC6D6631BD}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:I23"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5114,25 +5021,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5140,12 +5047,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -5160,12 +5067,12 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -5180,10 +5087,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -5196,25 +5103,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5226,15 +5128,15 @@
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -5246,14 +5148,14 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -5266,15 +5168,15 @@
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -5285,25 +5187,20 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5315,15 +5212,15 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -5335,14 +5232,14 @@
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -5354,25 +5251,20 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5384,16 +5276,16 @@
     </row>
     <row r="16" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16">
@@ -5404,17 +5296,17 @@
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="16">
         <f t="shared" si="0"/>
@@ -5424,15 +5316,15 @@
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -5443,25 +5335,20 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5473,17 +5360,17 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" si="0"/>
@@ -5493,15 +5380,15 @@
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -5512,20 +5399,37 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16">
-        <f>IF(C23="X",1)+IF(D23="X",2)+IF(E23="X",3)+IF(F23="X",4)+IF(G23="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="16"/>
       <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5534,10 +5438,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E294D8-0467-4205-813C-5D4D92DCD859}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:I23"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5555,25 +5459,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -5581,11 +5485,11 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -5601,11 +5505,11 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -5621,10 +5525,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -5637,25 +5541,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f>IF(C5="X",1)+IF(D5="X",2)+IF(E5="X",3)+IF(F5="X",4)+IF(G5="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5667,14 +5566,14 @@
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -5687,13 +5586,13 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -5707,15 +5606,15 @@
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -5726,25 +5625,20 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5756,14 +5650,14 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -5776,14 +5670,14 @@
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -5795,25 +5689,20 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5825,15 +5714,15 @@
     </row>
     <row r="16" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -5845,15 +5734,15 @@
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -5865,15 +5754,15 @@
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -5884,25 +5773,20 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5914,15 +5798,15 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -5934,15 +5818,15 @@
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -5953,20 +5837,37 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16">
-        <f>IF(C23="X",1)+IF(D23="X",2)+IF(E23="X",3)+IF(F23="X",4)+IF(G23="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="16"/>
       <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5976,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E1D042-BCDE-4FF9-A302-54279812C99C}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5997,25 +5898,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6023,10 +5924,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -6043,11 +5944,11 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -6063,10 +5964,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -6079,25 +5980,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6109,14 +6005,14 @@
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -6129,14 +6025,14 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -6149,14 +6045,14 @@
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -6168,25 +6064,20 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6198,14 +6089,14 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -6218,14 +6109,14 @@
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -6237,25 +6128,20 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6267,15 +6153,15 @@
     </row>
     <row r="16" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -6287,14 +6173,14 @@
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -6307,15 +6193,15 @@
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -6326,25 +6212,20 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -6356,15 +6237,15 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -6376,14 +6257,14 @@
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -6395,20 +6276,37 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16">
-        <f>IF(C23="X",1)+IF(D23="X",2)+IF(E23="X",3)+IF(F23="X",4)+IF(G23="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="16"/>
       <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6417,10 +6315,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA88A85-31A5-41D8-A7A6-73C23DE50991}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6438,25 +6336,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -6464,12 +6362,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -6484,12 +6382,12 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -6504,11 +6402,11 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -6520,25 +6418,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6550,15 +6443,15 @@
     </row>
     <row r="7" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -6570,14 +6463,14 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -6590,14 +6483,14 @@
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -6609,25 +6502,20 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="13"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6639,14 +6527,14 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -6659,15 +6547,15 @@
     </row>
     <row r="13" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -6678,25 +6566,20 @@
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -6708,15 +6591,15 @@
     </row>
     <row r="16" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -6728,14 +6611,14 @@
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -6748,15 +6631,15 @@
     </row>
     <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -6767,25 +6650,20 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A19" s="5"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H19" s="16"/>
       <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -6797,14 +6675,14 @@
     </row>
     <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -6817,14 +6695,14 @@
     </row>
     <row r="22" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -6836,20 +6714,37 @@
       <c r="I22" s="15"/>
     </row>
     <row r="23" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A23" s="4"/>
       <c r="B23" s="13"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16">
-        <f>IF(C23="X",1)+IF(D23="X",2)+IF(E23="X",3)+IF(F23="X",4)+IF(G23="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="16"/>
       <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6858,10 +6753,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6876,39 +6771,39 @@
     <row r="1" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -6922,35 +6817,35 @@
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16">
-        <f t="shared" ref="H2:H16" si="0">IF(C3="X",1)+IF(D3="X",2)+IF(E3="X",3)+IF(F3="X",4)+IF(G3="X",5)</f>
+        <f t="shared" ref="H3:H16" si="0">IF(C3="X",1)+IF(D3="X",2)+IF(E3="X",3)+IF(F3="X",4)+IF(G3="X",5)</f>
         <v>2</v>
       </c>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -6961,25 +6856,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -6991,14 +6881,14 @@
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -7011,16 +6901,16 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
@@ -7030,25 +6920,20 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -7060,14 +6945,14 @@
     </row>
     <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -7080,15 +6965,15 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -7099,25 +6984,20 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7129,14 +7009,14 @@
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -7149,14 +7029,14 @@
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -7168,20 +7048,37 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="13"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="16">
-        <f>IF(C17="X",1)+IF(D17="X",2)+IF(E17="X",3)+IF(F17="X",4)+IF(G17="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="16"/>
       <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7190,10 +7087,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE0B35B-C1E8-4F60-9E01-5927B6402ED8}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:A17"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7208,40 +7105,40 @@
     <row r="1" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15"/>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
@@ -7254,14 +7151,14 @@
     </row>
     <row r="3" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
@@ -7274,15 +7171,15 @@
     </row>
     <row r="4" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -7293,25 +7190,20 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="13"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
-      <c r="H5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7323,14 +7215,14 @@
     </row>
     <row r="7" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
@@ -7343,16 +7235,16 @@
     </row>
     <row r="8" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16">
@@ -7362,25 +7254,20 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="13"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -7392,14 +7279,14 @@
     </row>
     <row r="11" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -7412,16 +7299,16 @@
     </row>
     <row r="12" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16">
@@ -7431,25 +7318,20 @@
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H13" s="16"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7461,14 +7343,14 @@
     </row>
     <row r="15" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
@@ -7481,14 +7363,14 @@
     </row>
     <row r="16" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -7500,20 +7382,37 @@
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="4"/>
       <c r="B17" s="13"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="16">
-        <f>IF(C17="X",1)+IF(D17="X",2)+IF(E17="X",3)+IF(F17="X",4)+IF(G17="X",5)</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="16"/>
       <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
